--- a/docs/refund-discount.xlsx
+++ b/docs/refund-discount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\inhouse\inhouse-api\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC09FD4-D6A6-40F6-9AF9-1B7CAC18A307}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBC6E97-A8AD-4EF1-B76D-6C47A373743F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="b4clRcIfn46+3B2ztmLUBb/GpuBBZ+tUXbJVGG2l9uu/HzQdrCF5TvLzwdgaQ4QcKGBb8kYp2BFF3bxyMq+KpA==" workbookSaltValue="1yqKGrIi19fAAtY/XJVILA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -16,7 +16,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Поставщик:</t>
   </si>
@@ -96,41 +96,71 @@
     <t xml:space="preserve">Ч.Айтматова 299/1 , 6 этаж, кв 19 </t>
   </si>
   <si>
-    <t>ОсОО  "Бизам"   Салон мебели и ковров "InHouse"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Итого </t>
   </si>
   <si>
-    <t>Скидка</t>
-  </si>
-  <si>
-    <t>Спасибо Вам за доверие!</t>
-  </si>
-  <si>
-    <t>Н-наличка/Р-рассрочка/З-заказ</t>
-  </si>
-  <si>
     <t>Ногоев Кутман</t>
   </si>
   <si>
     <t xml:space="preserve"> ПОКУПАТЕЛЬ</t>
   </si>
   <si>
-    <t>КОД операции:</t>
-  </si>
-  <si>
-    <t>Адрес:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Накладная на возврат товара от 21 июль 2022 г </t>
+  </si>
+  <si>
+    <t>Лифт(код домофона):</t>
+  </si>
+  <si>
+    <t>лифт есть</t>
+  </si>
+  <si>
+    <t>Адрес (этаж):</t>
+  </si>
+  <si>
+    <t>Вид операции:</t>
+  </si>
+  <si>
+    <t>Возврат</t>
+  </si>
+  <si>
+    <t>Скидка сом</t>
+  </si>
+  <si>
+    <t>Дом премиальной мебели и ковров INHOUSE</t>
+  </si>
+  <si>
+    <t>ФИО (клиент)</t>
+  </si>
+  <si>
+    <t>ФИО (сервис)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДТК               </t>
+  </si>
+  <si>
+    <t>(ФИО и подпись)</t>
+  </si>
+  <si>
+    <t>(дата)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Касса            </t>
+  </si>
+  <si>
+    <t>(время и дата)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Склад          </t>
+  </si>
+  <si>
+    <t>РДП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,162 +169,112 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <i/>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <i/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -481,193 +461,226 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -950,18 +963,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Y42"/>
+  <dimension ref="B2:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" style="1" customWidth="1"/>
@@ -971,31 +984,31 @@
     <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="4" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="38" t="s">
+    <row r="2" spans="2:25" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="4" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1031,19 +1044,19 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="2:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="B6" s="38" t="s">
+    <row r="6" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1057,12 +1070,18 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="2:25" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+    <row r="7" spans="2:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="N7" s="2"/>
@@ -1079,46 +1098,46 @@
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="2:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="B8" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="5"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="7"/>
+      <c r="T8" s="6"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="6"/>
+      <c r="W8" s="5"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="6"/>
+      <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="5"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1126,27 +1145,27 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="7"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="2:25" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="5"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1154,7 +1173,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="7"/>
+      <c r="T10" s="6"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -1162,15 +1181,15 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="5"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1178,37 +1197,37 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="7"/>
+      <c r="T11" s="6"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>22</v>
+      <c r="H12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1224,30 +1243,30 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14">
+    <row r="13" spans="2:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>38000</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <f>F13*E13</f>
         <v>38000</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>150</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <f>G13-H13</f>
         <v>37850</v>
       </c>
@@ -1265,34 +1284,34 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
-      <c r="C14" s="12" t="s">
+    <row r="14" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="18"/>
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="12">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="28">
         <f>SUM(G13:G13)</f>
         <v>38000</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="28">
         <f>SUM(H13:H13)</f>
         <v>150</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="29">
         <f>SUM(I13:I13)</f>
         <v>37850</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="21"/>
@@ -1301,106 +1320,140 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H16" s="23" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="27" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H17" s="23" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="27" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="24"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="3" t="s">
+      <c r="I18" s="23"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+    </row>
+    <row r="19" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="H20" s="29" t="s">
+      <c r="D19" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+    </row>
+    <row r="20" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I20" s="37"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="22" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="5"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-    </row>
-    <row r="23" spans="2:20" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C23" s="27" t="s">
+      <c r="G21" s="23"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+    </row>
+    <row r="23" spans="2:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="43"/>
@@ -1409,44 +1462,50 @@
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
       <c r="I23" s="45"/>
-      <c r="J23" s="6"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="T23" s="7"/>
-    </row>
-    <row r="24" spans="2:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="5"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="2:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="46"/>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
       <c r="I24" s="48"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-    </row>
-    <row r="25" spans="2:20" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+    </row>
+    <row r="25" spans="2:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="46"/>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
       <c r="I25" s="48"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-    </row>
-    <row r="26" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+    </row>
+    <row r="26" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="49"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
@@ -1454,138 +1513,265 @@
       <c r="H26" s="50"/>
       <c r="I26" s="51"/>
     </row>
-    <row r="27" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="3" t="s">
+    <row r="27" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="21"/>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-    </row>
-    <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-    </row>
-    <row r="33" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="3" t="s">
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="H34" s="29" t="s">
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+    </row>
+    <row r="34" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="29"/>
-    </row>
-    <row r="36" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-    </row>
-    <row r="38" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="I34" s="37"/>
+    </row>
+    <row r="35" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="23"/>
+      <c r="C37" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+    </row>
+    <row r="38" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="C38" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+    </row>
+    <row r="41" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C41" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+    </row>
+    <row r="44" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C44" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+    </row>
+    <row r="47" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C47" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="GgGlj9S0wWfZfklDEVmy+/UTDK8GAP9qJKA05zwWSQBPpPT2iGgHHCqTa8gSTdxyOaWzzVkmH6cc0Q5Bc5Uocw==" saltValue="1E/GS4gsssVPyz7rM3kQVQ==" spinCount="100000" sqref="J23" name="Диапазон2"/>
-    <protectedRange algorithmName="SHA-512" hashValue="48IT+RXcehAkntOuMP6sCW0FoTxjLNuJCv6RFA2TxfJn5vhAjBzDz1eapsAq6C+PeODrwn+DpfWwg95XScVlQQ==" saltValue="q5lR8wK1nQ+jg6V5MDUMoQ==" spinCount="100000" sqref="D22 I8:I9" name="Диапазон1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="48IT+RXcehAkntOuMP6sCW0FoTxjLNuJCv6RFA2TxfJn5vhAjBzDz1eapsAq6C+PeODrwn+DpfWwg95XScVlQQ==" saltValue="q5lR8wK1nQ+jg6V5MDUMoQ==" spinCount="100000" sqref="D22 I9" name="Диапазон1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="48IT+RXcehAkntOuMP6sCW0FoTxjLNuJCv6RFA2TxfJn5vhAjBzDz1eapsAq6C+PeODrwn+DpfWwg95XScVlQQ==" saltValue="q5lR8wK1nQ+jg6V5MDUMoQ==" spinCount="100000" sqref="I8" name="Диапазон1_1"/>
   </protectedRanges>
-  <mergeCells count="22">
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D23:I26"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D28:F28"/>
+  <mergeCells count="32">
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C36:I38"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="D8:H8"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:H9"/>
@@ -1594,9 +1780,35 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:H10"/>
     <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D23:I26"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D8:I8" xr:uid="{19C8B9D5-B2E3-43EB-8B4C-2215C6395DB4}">
+      <formula1>$V$10:$V$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D10:I10" xr:uid="{CEF737AD-0577-46DE-9795-34B8C3D2B97B}">
+      <formula1>$R$11:$R$14</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <ignoredErrors>

--- a/docs/refund-discount.xlsx
+++ b/docs/refund-discount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\inhouse\inhouse-api\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBC6E97-A8AD-4EF1-B76D-6C47A373743F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0816E991-1C3D-45B0-AEAA-FFEC769FA4E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="b4clRcIfn46+3B2ztmLUBb/GpuBBZ+tUXbJVGG2l9uu/HzQdrCF5TvLzwdgaQ4QcKGBb8kYp2BFF3bxyMq+KpA==" workbookSaltValue="1yqKGrIi19fAAtY/XJVILA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,15 +192,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -253,7 +244,6 @@
     </font>
     <font>
       <b/>
-      <i/>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,15 +252,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -461,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -472,105 +453,128 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -578,108 +582,90 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -965,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -985,30 +971,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="4" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1045,18 +1031,18 @@
       <c r="Y5" s="2"/>
     </row>
     <row r="6" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1071,17 +1057,17 @@
       <c r="Y6" s="2"/>
     </row>
     <row r="7" spans="2:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="N7" s="2"/>
@@ -1098,18 +1084,18 @@
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="2:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="5"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1125,17 +1111,17 @@
       <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="7"/>
       <c r="J9" s="5"/>
       <c r="M9" s="2"/>
@@ -1153,18 +1139,18 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="2:25" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1211,22 +1197,22 @@
       <c r="C12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="61" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="2"/>
@@ -1244,29 +1230,29 @@
       <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="2:25" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>1</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>38000</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f>F13*E13</f>
         <v>38000</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>150</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <f>G13-H13</f>
         <v>37850</v>
       </c>
@@ -1285,480 +1271,480 @@
       <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="2:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="28">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="25">
         <f>SUM(G13:G13)</f>
         <v>38000</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="25">
         <f>SUM(H13:H13)</f>
         <v>150</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="26">
         <f>SUM(I13:I13)</f>
         <v>37850</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="27" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
+      <c r="I16" s="59"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="27" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
+      <c r="I17" s="59"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-    </row>
-    <row r="19" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="22"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="37" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
+      <c r="I20" s="32"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="2:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
       <c r="J23" s="5"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
       <c r="T23" s="6"/>
     </row>
     <row r="24" spans="2:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="2:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="2:20" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
     </row>
     <row r="29" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="31" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="37" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="37"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
     </row>
     <row r="34" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="31" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="37" t="s">
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="37"/>
+      <c r="I34" s="32"/>
     </row>
     <row r="35" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
-      <c r="C37" s="56" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
-      <c r="C38" s="58" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="60" t="s">
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="60" t="s">
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
     </row>
     <row r="44" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="60" t="s">
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
     </row>
     <row r="46" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
     </row>
     <row r="47" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="60" t="s">
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1768,6 +1754,22 @@
     <protectedRange algorithmName="SHA-512" hashValue="48IT+RXcehAkntOuMP6sCW0FoTxjLNuJCv6RFA2TxfJn5vhAjBzDz1eapsAq6C+PeODrwn+DpfWwg95XScVlQQ==" saltValue="q5lR8wK1nQ+jg6V5MDUMoQ==" spinCount="100000" sqref="I8" name="Диапазон1_1"/>
   </protectedRanges>
   <mergeCells count="32">
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H33:I33"/>
@@ -1784,22 +1786,6 @@
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D23:I26"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D8:I8" xr:uid="{19C8B9D5-B2E3-43EB-8B4C-2215C6395DB4}">
